--- a/BDD/registros/comentarios.xlsx
+++ b/BDD/registros/comentarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9732"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>codcomentario</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>contenidoComentario</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>lastUpdate</t>
   </si>
   <si>
     <t>¡La calidad de esta camisa es excepcional! El tejido es suave y duradero. Además, el diseño clásico hace que sea perfecta para cualquier ocasión. Muy satisfecho con mi compra.</t>
@@ -41,6 +47,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Esta blusa es simplemente encantadora. Los detalles en encaje le dan un toque femenino, y la tela es fresca y ligera. Combina muy bien con jeans o pantalones formales. </t>
     </r>
     <r>
@@ -91,8 +103,23 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -582,147 +609,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,21 +1294,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="12.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="19.2222222222222" customWidth="1"/>
+    <col min="26" max="27" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,65 +1322,142 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
+    <row r="2" ht="15" spans="1:27">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="AA2" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:27">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="AA3" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:27">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="AA4" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:27">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="AA5" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="6" ht="15.6" spans="1:27">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
+      <c r="Z6" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="AA6" s="6">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
       </c>
     </row>
   </sheetData>
